--- a/biology/Botanique/Brigitte_Bourny-Romagné/Brigitte_Bourny-Romagné.xlsx
+++ b/biology/Botanique/Brigitte_Bourny-Romagné/Brigitte_Bourny-Romagné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brigitte_Bourny-Romagn%C3%A9</t>
+          <t>Brigitte_Bourny-Romagné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brigitte Bourny-Romagné est une écrivaine et consultante spécialisée dans les plantes à parfum.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brigitte_Bourny-Romagn%C3%A9</t>
+          <t>Brigitte_Bourny-Romagné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir été directrice du marketing pour Yves Rocher, une grande marque de parfums et de cosmétiques orientée vers la nature, elle crée en 1996 « Le Monde en Parfum » qui propose une ligne de parfums axés sur les matières premières et leurs pays d'origine[1].
-Quatre ans plus tard, elle rejoint IFF, société de fragrances et d'arômes, en tant que directrice de création responsable des parfumeur-créateurs de parfums. Ensuite elle est nommée directrice de la prospective sur les essences naturelles[1].
-Après les avoir étudiées dans leur écosystème, elle écrits en 2003 « Secrets de plantes à parfum » aux éditions Milan. Un livre parrainé par le Comité Français du Parfum et consacré à quinze plantes à parfums utilisé dans la fabrication des parfums[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été directrice du marketing pour Yves Rocher, une grande marque de parfums et de cosmétiques orientée vers la nature, elle crée en 1996 « Le Monde en Parfum » qui propose une ligne de parfums axés sur les matières premières et leurs pays d'origine.
+Quatre ans plus tard, elle rejoint IFF, société de fragrances et d'arômes, en tant que directrice de création responsable des parfumeur-créateurs de parfums. Ensuite elle est nommée directrice de la prospective sur les essences naturelles.
+Après les avoir étudiées dans leur écosystème, elle écrits en 2003 « Secrets de plantes à parfum » aux éditions Milan. Un livre parrainé par le Comité Français du Parfum et consacré à quinze plantes à parfums utilisé dans la fabrication des parfums,.
 En janvier 2003, elle crée la société « Parfum in Fabula », spécialisé dans l’audit, la communication et la stratégie d’innovation des marques pour aider les marques à élaborer leurs nouveaux parfums et à enrichir leur communication olfactive.
-Elle développe un logiciel pédagogique, outils interactifs pour faire découvrir autrement les parfums de plantes pas comme les autres. On y découvre leur utilisation à travers les civilisations, leur culture, leur transformation, leurs facettes olfactives et les émotions qu'elles procurent aux compositeurs de parfum[3].
-En 2006 elle écrits « Des épices au parfum » aux éditions Aubanel, un livre qui raconte l’histoire des épices à travers les siècles et les civilisations et décrits leur utilisation dans les parfums[4],[5].
-Elle donne des conférences pour des marques et dans le cadre d’ateliers olfactifs créés à l’instigation de Thierry Mugler Parfum (2005)[6] et destinés au grand public.
-Elle est aussi vacataire à l’École Polytechnique dans le master « management de l’innovation »[7].
+Elle développe un logiciel pédagogique, outils interactifs pour faire découvrir autrement les parfums de plantes pas comme les autres. On y découvre leur utilisation à travers les civilisations, leur culture, leur transformation, leurs facettes olfactives et les émotions qu'elles procurent aux compositeurs de parfum.
+En 2006 elle écrits « Des épices au parfum » aux éditions Aubanel, un livre qui raconte l’histoire des épices à travers les siècles et les civilisations et décrits leur utilisation dans les parfums,.
+Elle donne des conférences pour des marques et dans le cadre d’ateliers olfactifs créés à l’instigation de Thierry Mugler Parfum (2005) et destinés au grand public.
+Elle est aussi vacataire à l’École Polytechnique dans le master « management de l’innovation ».
 </t>
         </is>
       </c>
